--- a/config_12.15/fish_3d_yutu_random_4.xlsx
+++ b/config_12.15/fish_3d_yutu_random_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,22 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>128,129,130,128,129,130,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>131,132,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>133,134,134,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135,136,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>34,36,149,150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,6 +317,22 @@
   </si>
   <si>
     <t>39,40,41,153,154,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,161,162,163,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,167,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" s="11">
         <v>180</v>
@@ -1125,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" s="11">
         <v>180</v>
@@ -1142,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C4" s="11">
         <v>200</v>
@@ -1360,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1675,7 +1675,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="20">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="21">
         <v>2</v>
@@ -1699,7 +1699,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="20">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="21">
         <v>2</v>
@@ -1723,7 +1723,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="20">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="21">
         <v>2</v>
@@ -1747,7 +1747,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="20">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="21">
         <v>2</v>
@@ -1761,6 +1761,102 @@
       </c>
       <c r="H16" s="20">
         <v>1607961599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="13">
+        <v>74</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="13">
+        <v>1607990400</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
+        <v>17</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="13">
+        <v>75</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="13">
+        <v>1607990400</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="13">
+        <v>76</v>
+      </c>
+      <c r="D19" s="18">
+        <v>2</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="13">
+        <v>1607990400</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1608566399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="17">
+        <v>19</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="13">
+        <v>77</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>5</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="13">
+        <v>1607990400</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1608566399</v>
       </c>
     </row>
   </sheetData>
@@ -1959,7 +2055,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2010,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>49</v>
@@ -2027,7 +2123,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>49</v>
@@ -2044,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>50</v>
@@ -2061,7 +2157,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>51</v>
